--- a/Turf On Grade 2.0 2024.xlsx
+++ b/Turf On Grade 2.0 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="66">
   <si>
     <t>Trestleches</t>
   </si>
@@ -52,34 +52,37 @@
     <t>RAJUN CAJUN</t>
   </si>
   <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>11-0-0</t>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>12-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -139,34 +142,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -200,6 +194,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -627,28 +624,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -662,28 +659,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -694,31 +691,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -732,28 +729,28 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -767,28 +764,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -802,28 +799,28 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -834,10 +831,10 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -852,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -884,16 +881,16 @@
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -901,34 +898,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -942,28 +939,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>13</v>
-      </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -981,13 +978,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -995,13 +992,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1009,13 +1006,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1023,13 +1020,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1037,13 +1034,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1051,13 +1048,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1065,13 +1062,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1079,13 +1076,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1096,10 +1093,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1110,10 +1107,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1124,10 +1121,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1145,16 +1142,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1165,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="D2">
         <v>0.5999999999999996</v>
@@ -1182,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1199,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1216,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D5">
-        <v>-0.7999999999999998</v>
+        <v>-1.2</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1233,13 +1230,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
-        <v>-1.5</v>
+        <v>-1.1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1250,10 +1247,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="D7">
-        <v>1.1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1267,13 +1264,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1284,13 +1281,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1301,13 +1298,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D10">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1324,7 +1321,7 @@
         <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1342,420 +1339,420 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>22.23</v>
+        <v>17.75</v>
       </c>
       <c r="C2">
-        <v>7.35</v>
+        <v>5.44</v>
       </c>
       <c r="D2">
-        <v>10.72</v>
+        <v>0.24</v>
       </c>
       <c r="E2">
-        <v>21.82</v>
+        <v>5.34</v>
       </c>
       <c r="F2">
-        <v>10.1</v>
+        <v>28.1</v>
       </c>
       <c r="G2">
-        <v>1.15</v>
+        <v>14.97</v>
       </c>
       <c r="H2">
-        <v>4.54</v>
+        <v>0.95</v>
       </c>
       <c r="I2">
-        <v>11.06</v>
+        <v>0.73</v>
       </c>
       <c r="J2">
-        <v>6.4</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2">
-        <v>4.63</v>
+        <v>16.77</v>
       </c>
       <c r="L2">
-        <v>62.12</v>
+        <v>28.77</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>18.22</v>
+        <v>17.41</v>
       </c>
       <c r="C3">
-        <v>13.24</v>
+        <v>18.8</v>
       </c>
       <c r="D3">
-        <v>5.53</v>
+        <v>3.82</v>
       </c>
       <c r="E3">
-        <v>19.03</v>
+        <v>0.27</v>
       </c>
       <c r="F3">
-        <v>17.54</v>
+        <v>5.08</v>
       </c>
       <c r="G3">
-        <v>3.05</v>
+        <v>23.83</v>
       </c>
       <c r="H3">
-        <v>3.02</v>
+        <v>16.64</v>
       </c>
       <c r="I3">
-        <v>9.039999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="J3">
-        <v>6.79</v>
+        <v>1.61</v>
       </c>
       <c r="K3">
-        <v>4.54</v>
+        <v>11.63</v>
       </c>
       <c r="L3">
-        <v>56.02</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>12.39</v>
+        <v>14.25</v>
       </c>
       <c r="C4">
-        <v>16.99</v>
+        <v>0.52</v>
       </c>
       <c r="D4">
-        <v>5.98</v>
+        <v>6.39</v>
       </c>
       <c r="E4">
-        <v>11.95</v>
+        <v>23.43</v>
       </c>
       <c r="F4">
-        <v>22.52</v>
+        <v>15.29</v>
       </c>
       <c r="G4">
-        <v>8.01</v>
+        <v>1.18</v>
       </c>
       <c r="H4">
-        <v>2.39</v>
+        <v>0.43</v>
       </c>
       <c r="I4">
-        <v>7.94</v>
+        <v>7.720000000000001</v>
       </c>
       <c r="J4">
-        <v>7.56</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>4.27</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="L4">
-        <v>47.30999999999999</v>
+        <v>44.59</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>10.78</v>
+        <v>14.07</v>
       </c>
       <c r="C5">
-        <v>4.23</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D5">
-        <v>14.46</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>15.81</v>
+        <v>1.05</v>
       </c>
       <c r="F5">
-        <v>4.109999999999999</v>
+        <v>16.13</v>
       </c>
       <c r="G5">
-        <v>1.64</v>
+        <v>28.8</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>4.72</v>
       </c>
       <c r="I5">
-        <v>17.26</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>7.7</v>
+        <v>5.37</v>
       </c>
       <c r="K5">
-        <v>12.01</v>
+        <v>20.03</v>
       </c>
       <c r="L5">
-        <v>45.28</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>10.34</v>
+        <v>13.9</v>
       </c>
       <c r="C6">
-        <v>25.09</v>
+        <v>1.93</v>
       </c>
       <c r="D6">
-        <v>13.88</v>
+        <v>0.96</v>
       </c>
       <c r="E6">
-        <v>6.800000000000001</v>
+        <v>17.25</v>
       </c>
       <c r="F6">
-        <v>18.81</v>
+        <v>24.33</v>
       </c>
       <c r="G6">
-        <v>13.8</v>
+        <v>5.23</v>
       </c>
       <c r="H6">
-        <v>2.09</v>
+        <v>0.13</v>
       </c>
       <c r="I6">
-        <v>3.38</v>
+        <v>3.22</v>
       </c>
       <c r="J6">
-        <v>4.09</v>
+        <v>17.59</v>
       </c>
       <c r="K6">
-        <v>1.72</v>
+        <v>15.46</v>
       </c>
       <c r="L6">
-        <v>56.11</v>
+        <v>34.04000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>8.59</v>
+        <v>10.4</v>
       </c>
       <c r="C7">
-        <v>6.710000000000001</v>
+        <v>22.53</v>
       </c>
       <c r="D7">
-        <v>14.98</v>
+        <v>9.48</v>
       </c>
       <c r="E7">
-        <v>10.4</v>
+        <v>0.64</v>
       </c>
       <c r="F7">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="G7">
-        <v>4.399999999999999</v>
+        <v>14.92</v>
       </c>
       <c r="H7">
-        <v>17.55</v>
+        <v>23.39</v>
       </c>
       <c r="I7">
-        <v>15.17</v>
+        <v>5.69</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>0.53</v>
       </c>
       <c r="K7">
-        <v>15.28</v>
+        <v>10.79</v>
       </c>
       <c r="L7">
-        <v>40.68</v>
+        <v>43.05</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>7.249999999999999</v>
+        <v>4.49</v>
       </c>
       <c r="C8">
-        <v>8.23</v>
+        <v>24.35</v>
       </c>
       <c r="D8">
-        <v>14.28</v>
+        <v>21.6</v>
       </c>
       <c r="E8">
-        <v>6.76</v>
+        <v>3.73</v>
       </c>
       <c r="F8">
-        <v>1.19</v>
+        <v>0.31</v>
       </c>
       <c r="G8">
-        <v>9.94</v>
+        <v>7.22</v>
       </c>
       <c r="H8">
-        <v>20.74</v>
+        <v>19.52</v>
       </c>
       <c r="I8">
-        <v>10.67</v>
+        <v>11.46</v>
       </c>
       <c r="J8">
-        <v>5.850000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="K8">
-        <v>15.09</v>
+        <v>6.22</v>
       </c>
       <c r="L8">
-        <v>36.52</v>
+        <v>54.16999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>4.04</v>
       </c>
       <c r="C9">
-        <v>8.85</v>
+        <v>0.83</v>
       </c>
       <c r="D9">
-        <v>11.35</v>
+        <v>9.99</v>
       </c>
       <c r="E9">
-        <v>3.65</v>
+        <v>16.63</v>
       </c>
       <c r="F9">
-        <v>2.96</v>
+        <v>5.38</v>
       </c>
       <c r="G9">
-        <v>17.73</v>
+        <v>0.26</v>
       </c>
       <c r="H9">
-        <v>19.66</v>
+        <v>4.08</v>
       </c>
       <c r="I9">
-        <v>5.029999999999999</v>
+        <v>25.76</v>
       </c>
       <c r="J9">
-        <v>10.07</v>
+        <v>27.2</v>
       </c>
       <c r="K9">
-        <v>14.7</v>
+        <v>5.83</v>
       </c>
       <c r="L9">
-        <v>29.85</v>
+        <v>31.49</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2.63</v>
+        <v>2.71</v>
       </c>
       <c r="C10">
-        <v>5.74</v>
+        <v>2.02</v>
       </c>
       <c r="D10">
-        <v>5.67</v>
+        <v>10.9</v>
       </c>
       <c r="E10">
-        <v>1.59</v>
+        <v>12.84</v>
       </c>
       <c r="F10">
-        <v>7.960000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="G10">
-        <v>21.62</v>
+        <v>1.29</v>
       </c>
       <c r="H10">
-        <v>11.7</v>
+        <v>18.76</v>
       </c>
       <c r="I10">
-        <v>5.71</v>
+        <v>34.15000000000001</v>
       </c>
       <c r="J10">
-        <v>20.62</v>
+        <v>14.12</v>
       </c>
       <c r="K10">
-        <v>16.76</v>
+        <v>0.73</v>
       </c>
       <c r="L10">
-        <v>15.63</v>
+        <v>28.47</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1.57</v>
+        <v>0.98</v>
       </c>
       <c r="C11">
-        <v>3.57</v>
+        <v>14.72</v>
       </c>
       <c r="D11">
-        <v>3.15</v>
+        <v>35.82</v>
       </c>
       <c r="E11">
-        <v>2.19</v>
+        <v>18.82</v>
       </c>
       <c r="F11">
-        <v>12.89</v>
+        <v>1.27</v>
       </c>
       <c r="G11">
-        <v>18.66</v>
+        <v>2.3</v>
       </c>
       <c r="H11">
-        <v>6.31</v>
+        <v>11.38</v>
       </c>
       <c r="I11">
-        <v>14.74</v>
+        <v>10.19</v>
       </c>
       <c r="J11">
-        <v>25.92</v>
+        <v>1.77</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>2.75</v>
       </c>
       <c r="L11">
-        <v>10.48</v>
+        <v>70.34</v>
       </c>
     </row>
   </sheetData>
@@ -1773,16 +1770,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1793,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1807,16 +1804,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1824,16 +1821,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1844,13 +1841,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1858,13 +1855,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -1875,16 +1872,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1892,16 +1889,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1912,13 +1909,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1929,13 +1926,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1946,13 +1943,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-48</v>
+        <v>-56</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1962,51 +1959,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2043,93 +2043,102 @@
       <c r="L2">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>19</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>24</v>
+      </c>
+      <c r="M3">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>-1</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>-2</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>29</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>-5</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>19</v>
-      </c>
-      <c r="I4">
-        <v>22</v>
-      </c>
-      <c r="J4">
-        <v>25</v>
-      </c>
-      <c r="K4">
+      <c r="M4">
         <v>23</v>
       </c>
-      <c r="L4">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2166,134 +2175,146 @@
       <c r="L5">
         <v>11</v>
       </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
       <c r="D6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
       <c r="H6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>-4</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>4</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>-5</v>
-      </c>
-      <c r="K7">
-        <v>-4</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-5</v>
+      </c>
+      <c r="K8">
+        <v>-4</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+      <c r="M8">
+        <v>-2</v>
+      </c>
+      <c r="N8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>-4</v>
-      </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2330,11 +2351,14 @@
       <c r="L9">
         <v>-16</v>
       </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2371,11 +2395,14 @@
       <c r="L10">
         <v>-31</v>
       </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-28</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2412,8 +2439,11 @@
       <c r="L11">
         <v>-48</v>
       </c>
-      <c r="M11" t="s">
-        <v>48</v>
+      <c r="M11">
+        <v>-56</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2423,7 +2453,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2431,25 +2461,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2840,110 +2870,6 @@
       </c>
       <c r="H16" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>-11</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>-11</v>
-      </c>
-      <c r="F19">
-        <v>-23</v>
-      </c>
-      <c r="G19">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-      <c r="G20">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Turf On Grade 2.0 2024.xlsx
+++ b/Turf On Grade 2.0 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="70">
   <si>
     <t>Trestleches</t>
   </si>
@@ -52,37 +52,37 @@
     <t>RAJUN CAJUN</t>
   </si>
   <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>12-0-0</t>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -142,25 +142,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↓10</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -197,6 +206,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -633,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
@@ -642,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -662,22 +674,22 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>11</v>
@@ -694,10 +706,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -729,16 +741,16 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -750,7 +762,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -758,34 +770,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -793,31 +805,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
@@ -828,34 +840,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -863,16 +875,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -884,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -898,16 +910,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -919,13 +931,13 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -933,16 +945,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -954,13 +966,13 @@
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -992,13 +1004,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1006,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1023,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1037,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1048,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1062,13 +1074,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1076,13 +1088,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1093,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1107,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1121,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1162,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D2">
-        <v>0.5999999999999996</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1179,10 +1191,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1196,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="D4">
-        <v>1.1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1213,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="D5">
         <v>-1.2</v>
@@ -1230,13 +1242,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="D6">
-        <v>-1.1</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1253,7 +1265,7 @@
         <v>0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1264,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D8">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1281,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D9">
-        <v>0.09999999999999964</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1298,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="D10">
-        <v>-4.1</v>
+        <v>-3.3</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1315,10 +1327,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1377,344 +1389,344 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>17.75</v>
+        <v>27.23</v>
       </c>
       <c r="C2">
-        <v>5.44</v>
+        <v>10.16</v>
       </c>
       <c r="D2">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
-        <v>5.34</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>28.1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>14.97</v>
+        <v>2.02</v>
       </c>
       <c r="H2">
-        <v>0.95</v>
+        <v>25.34</v>
       </c>
       <c r="I2">
-        <v>0.73</v>
+        <v>34.92</v>
       </c>
       <c r="J2">
-        <v>9.710000000000001</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.77</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>28.77</v>
+        <v>37.72</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>17.41</v>
+        <v>20.03</v>
       </c>
       <c r="C3">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.82</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>23.83</v>
+        <v>79.97</v>
       </c>
       <c r="H3">
-        <v>16.64</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.63</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>40.3</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>14.25</v>
+        <v>19.61</v>
       </c>
       <c r="C4">
-        <v>0.52</v>
+        <v>17.72</v>
       </c>
       <c r="D4">
-        <v>6.39</v>
+        <v>2.57</v>
       </c>
       <c r="E4">
-        <v>23.43</v>
+        <v>0.04</v>
       </c>
       <c r="F4">
-        <v>15.29</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.18</v>
+        <v>0.29</v>
       </c>
       <c r="H4">
-        <v>0.43</v>
+        <v>9.610000000000001</v>
       </c>
       <c r="I4">
-        <v>7.720000000000001</v>
+        <v>34.84999999999999</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>15.31</v>
       </c>
       <c r="K4">
-        <v>9.790000000000001</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>44.59</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>14.07</v>
+        <v>17.82</v>
       </c>
       <c r="C5">
-        <v>8.859999999999999</v>
+        <v>2.35</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>16.13</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>28.8</v>
+        <v>17.68</v>
       </c>
       <c r="H5">
-        <v>4.72</v>
+        <v>62.15000000000001</v>
       </c>
       <c r="I5">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.37</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>20.03</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>24.78</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>13.9</v>
+        <v>11.17</v>
       </c>
       <c r="C6">
-        <v>1.93</v>
+        <v>26.23</v>
       </c>
       <c r="D6">
-        <v>0.96</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="E6">
-        <v>17.25</v>
+        <v>0.38</v>
       </c>
       <c r="F6">
-        <v>24.33</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
-        <v>5.23</v>
+        <v>0.03</v>
       </c>
       <c r="H6">
-        <v>0.13</v>
+        <v>2.48</v>
       </c>
       <c r="I6">
-        <v>3.22</v>
+        <v>19.93</v>
       </c>
       <c r="J6">
-        <v>17.59</v>
+        <v>28.23</v>
       </c>
       <c r="K6">
-        <v>15.46</v>
+        <v>4.14</v>
       </c>
       <c r="L6">
-        <v>34.04000000000001</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>10.4</v>
+        <v>4.14</v>
       </c>
       <c r="C7">
-        <v>22.53</v>
+        <v>25.2</v>
       </c>
       <c r="D7">
-        <v>9.48</v>
+        <v>15.86</v>
       </c>
       <c r="E7">
-        <v>0.64</v>
+        <v>1.43</v>
       </c>
       <c r="F7">
-        <v>1.63</v>
+        <v>0.02</v>
       </c>
       <c r="G7">
-        <v>14.92</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>23.39</v>
+        <v>0.39</v>
       </c>
       <c r="I7">
-        <v>5.69</v>
+        <v>8.450000000000001</v>
       </c>
       <c r="J7">
-        <v>0.53</v>
+        <v>30.3</v>
       </c>
       <c r="K7">
-        <v>10.79</v>
+        <v>14.2</v>
       </c>
       <c r="L7">
-        <v>43.05</v>
+        <v>46.63</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>4.49</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>24.35</v>
+        <v>18.34</v>
       </c>
       <c r="D8">
-        <v>21.6</v>
+        <v>36.77</v>
       </c>
       <c r="E8">
-        <v>3.73</v>
+        <v>8.83</v>
       </c>
       <c r="F8">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="G8">
-        <v>7.22</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>19.52</v>
+        <v>0.03</v>
       </c>
       <c r="I8">
-        <v>11.46</v>
+        <v>1.7</v>
       </c>
       <c r="J8">
-        <v>1.1</v>
+        <v>15.48</v>
       </c>
       <c r="K8">
-        <v>6.22</v>
+        <v>18.73</v>
       </c>
       <c r="L8">
-        <v>54.16999999999999</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>9.99</v>
+        <v>37.07</v>
       </c>
       <c r="E9">
-        <v>16.63</v>
+        <v>31.6</v>
       </c>
       <c r="F9">
-        <v>5.38</v>
+        <v>2.31</v>
       </c>
       <c r="G9">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>4.08</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>25.76</v>
+        <v>0.15</v>
       </c>
       <c r="J9">
-        <v>27.2</v>
+        <v>8.219999999999999</v>
       </c>
       <c r="K9">
-        <v>5.83</v>
+        <v>20.65</v>
       </c>
       <c r="L9">
-        <v>31.49</v>
+        <v>68.67</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>2.71</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>12.84</v>
+        <v>57.72000000000001</v>
       </c>
       <c r="F10">
-        <v>2.48</v>
+        <v>12.59</v>
       </c>
       <c r="G10">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>18.76</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>14.12</v>
+        <v>2.46</v>
       </c>
       <c r="K10">
-        <v>0.73</v>
+        <v>27.23</v>
       </c>
       <c r="L10">
-        <v>28.47</v>
+        <v>57.72000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1722,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>14.72</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>35.82</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>18.82</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.27</v>
+        <v>84.95</v>
       </c>
       <c r="G11">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>11.38</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>10.19</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2.75</v>
+        <v>15.05</v>
       </c>
       <c r="L11">
-        <v>70.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1790,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1804,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1821,13 +1833,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -1838,16 +1850,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1855,16 +1867,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1872,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1892,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1909,13 +1921,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1926,13 +1938,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>-28</v>
+        <v>-26</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1943,13 +1955,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-56</v>
+        <v>-48</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1959,54 +1971,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2046,231 +2061,249 @@
       <c r="M2">
         <v>38</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>-2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>29</v>
+      </c>
+      <c r="M3">
+        <v>23</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>-11</v>
+      </c>
+      <c r="F4">
+        <v>-8</v>
+      </c>
+      <c r="G4">
+        <v>-8</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>-5</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>22</v>
-      </c>
-      <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3">
-        <v>23</v>
-      </c>
-      <c r="L3">
-        <v>24</v>
-      </c>
-      <c r="M3">
-        <v>28</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>12</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <v>29</v>
-      </c>
-      <c r="L4">
-        <v>29</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-11</v>
-      </c>
       <c r="F5">
-        <v>-8</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>-8</v>
+        <v>16</v>
       </c>
       <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>28</v>
+      </c>
+      <c r="N5">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>-1</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
       <c r="H6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>-4</v>
-      </c>
-      <c r="M6">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="N6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
       <c r="H7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
       <c r="L7">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>-8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2310,11 +2343,14 @@
       <c r="M8">
         <v>-2</v>
       </c>
-      <c r="N8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>-8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2354,11 +2390,14 @@
       <c r="M9">
         <v>-17</v>
       </c>
-      <c r="N9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>-20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2398,11 +2437,14 @@
       <c r="M10">
         <v>-28</v>
       </c>
-      <c r="N10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2442,8 +2484,11 @@
       <c r="M11">
         <v>-56</v>
       </c>
-      <c r="N11" t="s">
-        <v>46</v>
+      <c r="N11">
+        <v>-48</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2498,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2461,25 +2506,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2844,32 +2889,6 @@
       </c>
       <c r="H15" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>-16</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Turf On Grade 2.0 2024.xlsx
+++ b/Turf On Grade 2.0 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="70">
   <si>
     <t>Trestleches</t>
   </si>
@@ -52,37 +52,37 @@
     <t>RAJUN CAJUN</t>
   </si>
   <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -145,31 +145,28 @@
     <t>↑4</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑8</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -209,6 +206,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -636,28 +636,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -671,28 +671,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -703,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -721,13 +721,13 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -735,34 +735,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -770,34 +770,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -808,31 +808,31 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -840,22 +840,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -864,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
@@ -878,13 +878,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -896,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -945,34 +945,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
         <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1004,13 +1004,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1021,10 +1021,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1077,10 +1077,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1091,7 +1091,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1119,10 +1119,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1133,10 +1133,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>8.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1174,10 +1174,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D2">
-        <v>0.3000000000000007</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1191,13 +1191,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1205,16 +1205,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>7.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D4">
-        <v>0.9000000000000004</v>
+        <v>-1.199999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1222,16 +1222,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1239,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D6">
-        <v>-0.9000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1256,16 +1256,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>0.9000000000000004</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1276,13 +1276,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D8">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1293,13 +1293,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1310,13 +1310,13 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="D10">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1333,7 +1333,7 @@
         <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1389,16 +1389,16 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>27.23</v>
+        <v>23.49</v>
       </c>
       <c r="C2">
-        <v>10.16</v>
+        <v>2.2</v>
       </c>
       <c r="D2">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1407,13 +1407,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.02</v>
+        <v>13.25</v>
       </c>
       <c r="H2">
-        <v>25.34</v>
+        <v>61.06</v>
       </c>
       <c r="I2">
-        <v>34.92</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1422,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>37.72</v>
+        <v>25.69</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>23.29</v>
+      </c>
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>20.03</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>79.97</v>
+        <v>1.99</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>28.74</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>37.77</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1460,56 +1460,56 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>20.03</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>19.61</v>
+        <v>20.8</v>
       </c>
       <c r="C4">
-        <v>17.72</v>
+        <v>18.23</v>
       </c>
       <c r="D4">
-        <v>2.57</v>
+        <v>1.83</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="H4">
-        <v>9.610000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="I4">
-        <v>34.84999999999999</v>
+        <v>33.8</v>
       </c>
       <c r="J4">
-        <v>15.31</v>
+        <v>16.97</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>39.94</v>
+        <v>40.87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>17.82</v>
+        <v>15.45</v>
       </c>
       <c r="C5">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>17.68</v>
+        <v>84.55</v>
       </c>
       <c r="H5">
-        <v>62.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1536,83 +1536,83 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>20.17</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>11.17</v>
+        <v>11.84</v>
       </c>
       <c r="C6">
-        <v>26.23</v>
+        <v>23.22</v>
       </c>
       <c r="D6">
-        <v>7.399999999999999</v>
+        <v>5.53</v>
       </c>
       <c r="E6">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.01</v>
       </c>
-      <c r="G6">
-        <v>0.03</v>
-      </c>
       <c r="H6">
-        <v>2.48</v>
+        <v>1.82</v>
       </c>
       <c r="I6">
-        <v>19.93</v>
+        <v>20.86</v>
       </c>
       <c r="J6">
-        <v>28.23</v>
+        <v>31.38</v>
       </c>
       <c r="K6">
-        <v>4.14</v>
+        <v>5.13</v>
       </c>
       <c r="L6">
-        <v>45.18</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>4.14</v>
+        <v>5.13</v>
       </c>
       <c r="C7">
-        <v>25.2</v>
+        <v>27.07</v>
       </c>
       <c r="D7">
-        <v>15.86</v>
+        <v>14.44</v>
       </c>
       <c r="E7">
-        <v>1.43</v>
+        <v>0.84</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="I7">
-        <v>8.450000000000001</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="J7">
-        <v>30.3</v>
+        <v>29.64</v>
       </c>
       <c r="K7">
-        <v>14.2</v>
+        <v>16.15</v>
       </c>
       <c r="L7">
-        <v>46.63</v>
+        <v>47.48</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1623,34 +1623,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>18.34</v>
+        <v>21.28</v>
       </c>
       <c r="D8">
-        <v>36.77</v>
+        <v>33.95</v>
       </c>
       <c r="E8">
-        <v>8.83</v>
+        <v>6.03</v>
       </c>
       <c r="F8">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="J8">
-        <v>15.48</v>
+        <v>14.92</v>
       </c>
       <c r="K8">
-        <v>18.73</v>
+        <v>22.76</v>
       </c>
       <c r="L8">
-        <v>63.94</v>
+        <v>61.26000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>37.07</v>
+        <v>44.04</v>
       </c>
       <c r="E9">
-        <v>31.6</v>
+        <v>27.77</v>
       </c>
       <c r="F9">
-        <v>2.31</v>
+        <v>1.37</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="J9">
-        <v>8.219999999999999</v>
+        <v>5.63</v>
       </c>
       <c r="K9">
-        <v>20.65</v>
+        <v>21.1</v>
       </c>
       <c r="L9">
-        <v>68.67</v>
+        <v>71.81</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1705,10 +1705,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>57.72000000000001</v>
+        <v>65.14</v>
       </c>
       <c r="F10">
-        <v>12.59</v>
+        <v>12.64</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2.46</v>
+        <v>1.46</v>
       </c>
       <c r="K10">
-        <v>27.23</v>
+        <v>20.76</v>
       </c>
       <c r="L10">
-        <v>57.72000000000001</v>
+        <v>65.14</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>84.95</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.05</v>
+        <v>14.1</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1819,7 +1819,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1836,10 +1836,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>42</v>
@@ -1853,10 +1853,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>43</v>
@@ -1870,10 +1870,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
@@ -1887,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1904,7 +1904,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1921,10 +1921,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-20</v>
+        <v>-24</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
         <v>47</v>
@@ -1941,7 +1941,7 @@
         <v>-26</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>48</v>
@@ -1955,13 +1955,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1971,57 +1971,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2064,11 +2067,14 @@
       <c r="N2">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2111,11 +2117,14 @@
       <c r="N3">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2158,11 +2167,14 @@
       <c r="N4">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2205,11 +2217,14 @@
       <c r="N5">
         <v>19</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2252,11 +2267,14 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2299,11 +2317,14 @@
       <c r="N7">
         <v>-8</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7">
+        <v>-7</v>
+      </c>
+      <c r="P7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2346,11 +2367,14 @@
       <c r="N8">
         <v>-8</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8">
+        <v>-13</v>
+      </c>
+      <c r="P8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2393,11 +2417,14 @@
       <c r="N9">
         <v>-20</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9">
+        <v>-24</v>
+      </c>
+      <c r="P9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2440,11 +2467,14 @@
       <c r="N10">
         <v>-26</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10">
+        <v>-26</v>
+      </c>
+      <c r="P10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2487,8 +2517,11 @@
       <c r="N11">
         <v>-48</v>
       </c>
-      <c r="O11" t="s">
-        <v>49</v>
+      <c r="O11">
+        <v>-49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2610,25 +2643,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>-7</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
         <v>6</v>
-      </c>
-      <c r="F5">
-        <v>-25</v>
-      </c>
-      <c r="G5">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2636,25 +2669,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>-25</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2665,22 +2698,22 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2688,25 +2721,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>-18</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2714,25 +2747,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>-8</v>
+        <v>-49</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>-24</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2740,25 +2773,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2766,22 +2799,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="F11">
-        <v>-23</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
         <v>7</v>
@@ -2795,22 +2828,22 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="F12">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2818,25 +2851,25 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>-2</v>
-      </c>
-      <c r="F13">
-        <v>-18</v>
-      </c>
       <c r="G13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2844,25 +2877,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="G14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2870,25 +2903,25 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
       <c r="F15">
-        <v>-5</v>
+        <v>-12</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
